--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_012.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_012.xlsx
@@ -31,304 +31,304 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295016AK2.12) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Emergency generators</t>
-  </si>
-  <si>
-    <t>(295030EK2.06) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup system(s)</t>
-  </si>
-  <si>
-    <t>(295001AA2.02) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Neutron monitoring</t>
-  </si>
-  <si>
-    <t>(295038EA1.13) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Radwaste system</t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
     <t>(700000AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Frequency changes</t>
   </si>
   <si>
-    <t>(295026EK2.01) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295021AA2.07) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor recirculation flow</t>
-  </si>
-  <si>
-    <t>(295031EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) High-pressure core spray</t>
-  </si>
-  <si>
-    <t>(295027EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Pressure control</t>
-  </si>
-  <si>
-    <t>(295004AK2.02) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Batteries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+    <t>(295030EK2.08) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Systems required to depressurize the reactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295038EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Emergency depressurization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295001AA2.05) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Jet pump operability </t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295024EK2.10) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution</t>
   </si>
   <si>
     <t>(295018AA1.07) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
   </si>
   <si>
-    <t>(295037EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Reactor water level control strategies</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295023AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Refueling interlocks</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295006AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(295027EK2.01) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI: containment spray system mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295037EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Systems used for alternate boron injection </t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
+  </si>
+  <si>
+    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
   </si>
   <si>
     <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
   </si>
   <si>
-    <t>(295003AK2.04) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical loads</t>
-  </si>
-  <si>
-    <t>(295033EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Systems required to suppress a fire</t>
-  </si>
-  <si>
-    <t>(295012AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Increased drywell cooling</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295014AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Preconditioning interim operating management recommendations (PCIOMR)</t>
-  </si>
-  <si>
-    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295020AA2.09) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Area/delta temperatures</t>
-  </si>
-  <si>
-    <t>(218000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(259002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) AC power</t>
-  </si>
-  <si>
-    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
-  </si>
-  <si>
-    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
-  </si>
-  <si>
-    <t>(300000K4.06) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining normal instrument air pressure</t>
-  </si>
-  <si>
-    <t>(209001A2.10) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(209002K2.01) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(212000A4.04) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Bypass SCRAM signals</t>
-  </si>
-  <si>
-    <t>(211000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) CRD system</t>
-  </si>
-  <si>
-    <t>(510000K3.11) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(203000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(223002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(215003A3.04) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block signals</t>
-  </si>
-  <si>
-    <t>(215005K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) LPRM detector operation</t>
-  </si>
-  <si>
-    <t>(205000K4.04) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate pump NPSH</t>
-  </si>
-  <si>
-    <t>(400000A2.12) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to reactor recirculation pump variable frequency drive</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(261000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Primary containment isolation system/nuclear steam supply shutoff system</t>
-  </si>
-  <si>
-    <t>(264000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant loads</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291006K1.07) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Control of heat exchanger temperatures</t>
-  </si>
-  <si>
-    <t>(218000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(259002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Instrument air systems</t>
-  </si>
-  <si>
-    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
-  </si>
-  <si>
-    <t>(262001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Breaker control power</t>
-  </si>
-  <si>
-    <t>(215001K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 TIP) TRAVERSING IN CORE PROBE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Local power range monitoring system</t>
-  </si>
-  <si>
-    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(219000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) System flow</t>
-  </si>
-  <si>
-    <t>(201005K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.7 / 45.7) First stage shell pressure or opening of a bypass valve(s)</t>
-  </si>
-  <si>
-    <t>(271000A3.02) Ability to monitor automatic operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.7 / 45.7) System flow control</t>
-  </si>
-  <si>
-    <t>(510001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pump suction low level</t>
-  </si>
-  <si>
-    <t>(290003K4.01) Knowledge of (SF9 CRV) CONTROL ROOM VENTILATION design features and/or interlocks that provide for the following: (CFR: 41.7) System initiation/reconfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(202001A2.08) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow mismatch </t>
-  </si>
-  <si>
-    <t>(245000K2.01) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Stator water cooling pumps</t>
-  </si>
-  <si>
-    <t>(272000A4.04) Ability to manually operate and/or monitor the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(290002K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Traversing in‑core probe system</t>
-  </si>
-  <si>
-    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+    <t>(600000AK2.09) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Installed fire suppression systems</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295032EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295002AA2.05) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Condensate temperature</t>
+  </si>
+  <si>
+    <t>(295036EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(295008AK2.06) Knowledge of the relationship between the (APE 8) HIGH REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
+  </si>
+  <si>
+    <t>(295022AA1.03) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) Recirculation system</t>
+  </si>
+  <si>
+    <t>(262001K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main turbine generator and auxiliaries system</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(218000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) ADS valve position indications</t>
+  </si>
+  <si>
+    <t>(261000A2.03) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High train temperature</t>
+  </si>
+  <si>
+    <t>(264000A3.07) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Room ventilation system</t>
+  </si>
+  <si>
+    <t>(217000A4.02) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Turbine trip throttle valve reset</t>
+  </si>
+  <si>
+    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
+  </si>
+  <si>
+    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
+  </si>
+  <si>
+    <t>(209002K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(215003K4.03) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Gamma compensation</t>
+  </si>
+  <si>
+    <t>(400000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Service water system</t>
+  </si>
+  <si>
+    <t>(215004K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RMCS (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291004K1.11) PUMPS (CFR: 41.3) (CENTRIFUGAL) Definition of pump shutoff head</t>
+  </si>
+  <si>
+    <t>(215005A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(211000A2.01) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(239002A3.02) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation on high reactor pressure </t>
+  </si>
+  <si>
+    <t>(209001A4.01) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Core spray pump</t>
+  </si>
+  <si>
+    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
+  </si>
+  <si>
+    <t>(259002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Moisture carryover/carryunder</t>
+  </si>
+  <si>
+    <t>(203000K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Automatic depressurization logic</t>
+  </si>
+  <si>
+    <t>(205000K4.03) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Low reactor water level</t>
+  </si>
+  <si>
+    <t>(263000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Grounds</t>
+  </si>
+  <si>
+    <t>(262001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Uninterruptible power supply (switchyard UPS)</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(218000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(261000A2.06) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve/damper closures</t>
+  </si>
+  <si>
+    <t>(256000K4.07) Knowledge of (SF2 CDS) CONDENSATE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Cascading heater drains</t>
+  </si>
+  <si>
+    <t>(245000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.7 / 45.7) Hydrogen cooling</t>
+  </si>
+  <si>
+    <t>(230000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (291004K1.08) PUMPS (CFR: 41.3) (CENTRIFUGAL) Purpose of starting a pump with discharge valve closed</t>
+  </si>
+  <si>
+    <t>(201003A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM including: (CFR: 41.1-6 / 45.1-6) CRD mechanism temperature</t>
+  </si>
+  <si>
+    <t>(290002A2.05) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding thermal limits</t>
+  </si>
+  <si>
+    <t>(226001A3.07) Ability to monitor automatic operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(290003A4.03) Ability to manually operate and/or monitor the (SF9 CRV) CONTROL ROOM VENTILATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Dampers</t>
+  </si>
+  <si>
+    <t>(202002K2.01) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(268000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 RW) RADWASTE SYSTEM: (CFR: 41.5 / 45.3) Dilution flow for releases</t>
+  </si>
+  <si>
+    <t>(288000K3.04) Knowledge of the effect that a loss or malfunction of the (SF9 PVS) PLANT VENTILATION SYSTEMS will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Secondary containment pressure</t>
+  </si>
+  <si>
+    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292008K1.17) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Describe three parameters to be monitored and controlled during power operation</t>
   </si>
   <si>
     <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
   </si>
   <si>
-    <t>(292004K1.02) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of the temperature coefficient of reactivity from changes in moderator temperature and core age</t>
-  </si>
-  <si>
-    <t>(292008K1.24) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Describe the parameters to be monitored and controlled during rod pattern exchanges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293007K1.01) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe three mechanisms of heat transfer </t>
-  </si>
-  <si>
-    <t>(293010K1.01) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the brittle fracture mode of failure</t>
-  </si>
-  <si>
-    <t>(293009K1.05) CORE THERMAL LIMITS (CFR: 41.14) State the reason thermal limits are necessary</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/suppression chamber differential pressure (Mark I, II)</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295038EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
-  </si>
-  <si>
-    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(209001A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(212000A2.11) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(204000A2.15) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Cleanup demineralizer high differential pressure</t>
-  </si>
-  <si>
-    <t>(234000A4.01) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Neutron monitoring system</t>
-  </si>
-  <si>
-    <t>(226001A2.21) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of containment/drywell cooling system(s)</t>
-  </si>
-  <si>
-    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
+  </si>
+  <si>
+    <t>(293006K1.08) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss pump head</t>
+  </si>
+  <si>
+    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295030EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/suppression chamber differential pressure (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295001AA2.07) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295014AA2.01) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(233000A2.10) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Refueling bellows seal high flow</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(204000A2.08) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) RWCU pump seal failure</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
     <t>K1</t>
@@ -337,33 +337,33 @@
     <t>K2</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,70 +385,199 @@
     <t>T</t>
   </si>
   <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295038</t>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295005</t>
   </si>
   <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295012</t>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293003</t>
   </si>
   <si>
     <t>295009</t>
@@ -457,145 +586,16 @@
     <t>295014</t>
   </si>
   <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295032</t>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>239003</t>
   </si>
   <si>
     <t>204000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>226001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D34" t="s">
         <v>106</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1650,7 +1650,7 @@
         <v>3.9</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D45" t="s">
         <v>106</v>
@@ -1735,7 +1735,7 @@
         <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D62" t="s">
         <v>106</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2279,7 +2279,7 @@
         <v>3.5</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2296,7 +2296,7 @@
         <v>4.4</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2517,7 +2517,7 @@
         <v>2.9</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
